--- a/Nanazono_Familiar/Assets/Resources/NameListHiragana.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameListHiragana.xlsx
@@ -281,9 +281,6 @@
     <t>き,ゃ,ろ</t>
   </si>
   <si>
-    <t>ろ,にー</t>
-  </si>
-  <si>
     <t>て,ね,あ</t>
   </si>
   <si>
@@ -387,6 +384,10 @@
   </si>
   <si>
     <t>く,め</t>
+  </si>
+  <si>
+    <t>ろ,に,ー</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1082,7 +1083,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -1118,7 +1119,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -1126,11 +1127,11 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1144,7 +1145,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -1158,7 +1159,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
@@ -1172,19 +1173,19 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1194,7 +1195,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
@@ -1202,13 +1203,13 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
@@ -1216,11 +1217,11 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1234,11 +1235,11 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1252,29 +1253,29 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1302,7 +1303,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
@@ -1310,7 +1311,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1320,7 +1321,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2" t="s">
@@ -1334,19 +1335,19 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1354,11 +1355,11 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
@@ -1384,7 +1385,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2" t="s">
@@ -1392,18 +1393,18 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
@@ -1414,15 +1415,15 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1433,11 +1434,11 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1448,18 +1449,18 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
@@ -1467,7 +1468,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1478,7 +1479,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="2" t="s">
@@ -1493,11 +1494,11 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1506,11 +1507,11 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1519,7 +1520,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="2" t="s">
@@ -1532,7 +1533,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="2" t="s">
@@ -1547,18 +1548,18 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1567,7 +1568,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1582,14 +1583,14 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1603,20 +1604,20 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="1"/>
       <c r="H53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1630,14 +1631,14 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1658,7 +1659,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1667,7 +1668,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
